--- a/fontawesome-convert.xlsx
+++ b/fontawesome-convert.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t xml:space="preserve">icon-wrench</t>
   </si>
@@ -28,43 +28,124 @@
     <t xml:space="preserve">cog</t>
   </si>
   <si>
+    <t xml:space="preserve">2019年
+4月17日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">振込ＩＢ２　フジワラ　フミト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305,571円</t>
+  </si>
+  <si>
     <t xml:space="preserve">icon-reorder</t>
   </si>
   <si>
     <t xml:space="preserve">bars</t>
   </si>
   <si>
+    <t xml:space="preserve">2019年
+4月26日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232,916円</t>
+  </si>
+  <si>
     <t xml:space="preserve">icon-plus-sign</t>
   </si>
   <si>
     <t xml:space="preserve">plus-circle</t>
   </si>
   <si>
+    <t xml:space="preserve">2019年
+5月1日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カ－ド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202,916円</t>
+  </si>
+  <si>
     <t xml:space="preserve">icon-arrow-right</t>
   </si>
   <si>
     <t xml:space="preserve">arrow-right</t>
   </si>
   <si>
+    <t xml:space="preserve">2019年
+5月4日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カードＣ１　セブンギンコウＡＴＭ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192,916円</t>
+  </si>
+  <si>
     <t xml:space="preserve">icon-double-angle-up</t>
   </si>
   <si>
+    <t xml:space="preserve">2019年
+5月7日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">口座振替４　セゾン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187,639円</t>
+  </si>
+  <si>
     <t xml:space="preserve">icon-double-angle-down</t>
   </si>
   <si>
+    <t xml:space="preserve">口座振替３　ワイジエイカ－ド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167,663円</t>
+  </si>
+  <si>
     <t xml:space="preserve">icon icon-bookmark-empty</t>
   </si>
   <si>
     <t xml:space="preserve">bookmark</t>
   </si>
   <si>
+    <t xml:space="preserve">口座振替３　ＤＦ．カンリヒトウ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137,563円</t>
+  </si>
+  <si>
     <t xml:space="preserve">icon-caret-down</t>
   </si>
   <si>
+    <t xml:space="preserve">口座振替４　ラクテンカ－ドサ－ビ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81,346円</t>
+  </si>
+  <si>
     <t xml:space="preserve">icon icon-random</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年
+5月10日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クレジット</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80,546円</t>
   </si>
   <si>
     <t xml:space="preserve">icon icon-cog</t>
@@ -173,7 +254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -200,20 +281,126 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -221,8 +408,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -246,25 +448,161 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -273,10 +611,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -285,230 +623,396 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>72655</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>5277</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>19976</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>30100</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>56217</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">SUM(E1:E9)</f>
+        <v>240025</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,7 +1022,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
